--- a/Customer/客户管理.xlsx
+++ b/Customer/客户管理.xlsx
@@ -4,13 +4,15 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="ex1" sheetId="1" r:id="rId1"/>
+    <sheet name="STMC" sheetId="1" r:id="rId1"/>
+    <sheet name="Sensor" sheetId="2" r:id="rId2"/>
+    <sheet name="光大" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ex1'!$A$1:$E$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STMC!$A$1:$E$12</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
   <extLst>
@@ -22,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
   <si>
     <t>Program Name</t>
   </si>
@@ -136,6 +138,10 @@
   </si>
   <si>
     <t>深圳市女娲机器人科技有限公司</t>
+  </si>
+  <si>
+    <t>业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -492,7 +498,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -500,11 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,7 +538,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -550,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
@@ -567,7 +572,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -601,7 +606,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>20</v>
       </c>
@@ -618,7 +623,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -652,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>27</v>
       </c>
@@ -669,7 +674,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>30</v>
       </c>
@@ -703,7 +708,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="14.4" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -721,13 +726,242 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E12">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="安刚"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E12"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="41" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Customer/客户管理.xlsx
+++ b/Customer/客户管理.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STMC" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
   <si>
     <t>Program Name</t>
   </si>
@@ -141,6 +141,34 @@
   </si>
   <si>
     <t>业务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮涌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量泵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SDC8270</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Micheal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极智物联</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下水道阀门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -498,7 +526,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -767,11 +795,17 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -854,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -885,11 +919,19 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>

--- a/Customer/客户管理.xlsx
+++ b/Customer/客户管理.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="STMC" sheetId="1" r:id="rId1"/>
     <sheet name="Sensor" sheetId="2" r:id="rId2"/>
     <sheet name="光大" sheetId="3" r:id="rId3"/>
+    <sheet name="STMCU" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">STMC!$A$1:$E$12</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="58">
   <si>
     <t>Program Name</t>
   </si>
@@ -169,6 +170,54 @@
   </si>
   <si>
     <t>下水道阀门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS3DH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫地机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华橙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LIS6Ds33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>壹华欣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy、Eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中讯邮电设计院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eric</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stm32030f4t6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电动车</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -246,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -254,6 +303,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -526,7 +576,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -753,6 +803,152 @@
         <v>12</v>
       </c>
     </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E12"/>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -764,8 +960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -798,7 +994,9 @@
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -808,11 +1006,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
@@ -889,7 +1095,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1007,4 +1213,123 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>